--- a/Test Data Driven/AI-Generated/Common/completeShippingAddressForm.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeShippingAddressForm.xlsx
@@ -451,9 +451,9 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,17 +484,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>input_zipcode</t>
+          <t>input_phone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>textbox_shippingAddressPhone</t>
+          <t>input_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>textbox_shippingAddressState</t>
+          <t>input_zipCode</t>
         </is>
       </c>
     </row>
